--- a/Luban/Config/Datas/#HardSet.xlsx
+++ b/Luban/Config/Datas/#HardSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="12375"/>
+    <workbookView windowWidth="15225" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1058,7 +1058,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1163,13 +1163,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F4" s="4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
